--- a/ig/ch-core/StructureDefinition-ch-core-patient.xlsx
+++ b/ig/ch-core/StructureDefinition-ch-core-patient.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16T16:13:45+00:00</t>
+    <t>2024-12-17T19:57:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
-    <t>HL7 Switzerland (https://www.hl7.ch/(WORK))</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/(work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -284,7 +284,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}ch-pat-1:At least one HumanName with given and family name must be provided. {name.where(family.exists() and given.exists()).count()&gt;0 or name.empty()}ch-pat-2:gender unknown is currently not used in Switzerland in eCH and the EPR {gender.empty() or gender!='unknown'}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}ch-pat-1:If one ore more human names are provided, at least one human name should have a family and a given name. {name.where(family.exists() and given.exists()).count()&gt;0 or name.empty()}ch-pat-2:gender 'unknown' is currently not used in Switzerland in eCH and the EPR {gender.empty() or gender!='unknown'}</t>
   </si>
   <si>
     <t>Patient[classCode=PAT]</t>
@@ -587,7 +587,7 @@
     <t>Patients are almost always assigned specific numerical identifiers.</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:$this}
+    <t xml:space="preserve">value:$this}
 </t>
   </si>
   <si>
@@ -1003,7 +1003,7 @@
     <t>.telecom</t>
   </si>
   <si>
-    <t>-&gt; as of HL7 v2.7 PID-40 (leave PID-13 and PID-14 empty)</t>
+    <t>PID-13, PID-14, PID-40</t>
   </si>
   <si>
     <t>Patient.telecom.id</t>
@@ -1192,7 +1192,7 @@
     <t>Patient.gender</t>
   </si>
   <si>
-    <t>male | female | other</t>
+    <t>male | female | other | unknown* (* see warning 'ch-pat-2')</t>
   </si>
   <si>
     <t>Administrative Gender - the gender that the patient is considered to have for administration and record keeping purposes.</t>
@@ -1297,7 +1297,7 @@
     <t>An address expressed using postal conventions (as opposed to GPS or other location definition formats).  This data type may be used to convey addresses for use in delivering mail as well as for visiting locations which might not be valid for mail delivery.  There are a variety of postal address formats defined around the world.</t>
   </si>
   <si>
-    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](location.html#) resource).</t>
+    <t>Note: address is intended to describe postal addresses for administrative purposes, not to describe absolute geographical coordinates.  Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
   </si>
   <si>
     <t>May need to keep track of patient addresses for contacting, billing or reporting requirements and also to help with identification.</t>

--- a/ig/ch-core/StructureDefinition-ch-core-patient.xlsx
+++ b/ig/ch-core/StructureDefinition-ch-core-patient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5756" uniqueCount="706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5525" uniqueCount="696">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.0.0-ballot</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T06:00:59+00:00</t>
+    <t>2025-12-16T08:02:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -379,7 +379,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -480,6 +480,10 @@
     <t>The registered place of birth of the patient.</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t>eCH-0011: placeOfBirth BFS-322, BFS-323, BFS 324</t>
   </si>
   <si>
@@ -499,10 +503,6 @@
     <t>The registered place of origin of the patient.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>eCH-0011: placeOfOrigin, BFS-42</t>
   </si>
   <si>
@@ -512,7 +512,7 @@
     <t>citizenship</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {patient-citizenship|5.2.0}
+    <t xml:space="preserve">Extension {patient-citizenship|5.3.0-ballot-tc1}
 </t>
   </si>
   <si>
@@ -535,7 +535,7 @@
     <t>religion</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {patient-religion|5.2.0}
+    <t xml:space="preserve">Extension {patient-religion|5.3.0-ballot-tc1}
 </t>
   </si>
   <si>
@@ -762,7 +762,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -859,7 +859,7 @@
     <t>Patient.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1798,7 +1798,7 @@
     <t>The nature of the relationship between a patient and a contact person for that patient.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/patient-contactrelationship</t>
+    <t>http://hl7.org/fhir/ValueSet/patient-contactrelationship|4.0.1</t>
   </si>
   <si>
     <t>code</t>
@@ -2028,8 +2028,7 @@
     <t>If a patient does not speak the local language, interpreters may be required, so languages spoken and proficiency are important things to keep track of both for patient and other persons of interest.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:preferred}
-</t>
+    <t>eCH-0011: languageOfCorrespondence: de, fr, it, rm = Rhaeto-Romance, en, other languages ISO 639-1</t>
   </si>
   <si>
     <t>LanguageCommunication</t>
@@ -2093,36 +2092,6 @@
   </si>
   <si>
     <t>PID-15</t>
-  </si>
-  <si>
-    <t>Patient.communication:languageOfCorrespondence</t>
-  </si>
-  <si>
-    <t>languageOfCorrespondence</t>
-  </si>
-  <si>
-    <t>Language of correspondence</t>
-  </si>
-  <si>
-    <t>eCH-0011: languageOfCorrespondence: de, fr, it, rm = Rhaeto-Romance, en, other languages ISO 639-1</t>
-  </si>
-  <si>
-    <t>Patient.communication:languageOfCorrespondence.id</t>
-  </si>
-  <si>
-    <t>Patient.communication:languageOfCorrespondence.extension</t>
-  </si>
-  <si>
-    <t>Patient.communication:languageOfCorrespondence.modifierExtension</t>
-  </si>
-  <si>
-    <t>Patient.communication:languageOfCorrespondence.language</t>
-  </si>
-  <si>
-    <t>Patient.communication:languageOfCorrespondence.preferred</t>
-  </si>
-  <si>
-    <t>true</t>
   </si>
   <si>
     <t>Patient.generalPractitioner</t>
@@ -2132,7 +2101,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization|Practitioner|PractitionerRole)
+    <t xml:space="preserve">Reference(Organization|4.0.1|Practitioner|4.0.1|PractitionerRole|4.0.1)
 </t>
   </si>
   <si>
@@ -2203,7 +2172,7 @@
     <t>Patient.link.other</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(Patient|4.0.1|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>
@@ -2548,7 +2517,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP150"/>
+  <dimension ref="A1:AP144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2557,9 +2526,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="56.36328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.4765625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="33.83984375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="22.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="18.78515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
@@ -2582,7 +2551,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="44.51171875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="48.33203125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -3776,13 +3745,13 @@
         <v>84</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>85</v>
+        <v>149</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>143</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>85</v>
@@ -3802,13 +3771,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>136</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>85</v>
@@ -3830,13 +3799,13 @@
         <v>85</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3896,7 +3865,7 @@
         <v>84</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>143</v>
@@ -4016,7 +3985,7 @@
         <v>84</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>85</v>
+        <v>149</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>162</v>
@@ -4136,7 +4105,7 @@
         <v>84</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>85</v>
+        <v>149</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>143</v>
@@ -8108,7 +8077,7 @@
         <v>84</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>143</v>
@@ -10022,7 +9991,7 @@
         <v>84</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>143</v>
@@ -11936,7 +11905,7 @@
         <v>84</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>143</v>
@@ -18293,14 +18262,16 @@
         <v>85</v>
       </c>
       <c r="AB131" t="s" s="2">
-        <v>640</v>
-      </c>
-      <c r="AC131" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="AC131" t="s" s="2">
+        <v>85</v>
+      </c>
       <c r="AD131" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>141</v>
+        <v>85</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>635</v>
@@ -18318,7 +18289,7 @@
         <v>104</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>85</v>
+        <v>640</v>
       </c>
       <c r="AL131" t="s" s="2">
         <v>641</v>
@@ -18945,20 +18916,18 @@
         <v>662</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="C137" t="s" s="2">
+        <v>662</v>
+      </c>
+      <c r="C137" s="2"/>
+      <c r="D137" t="s" s="2">
         <v>663</v>
-      </c>
-      <c r="D137" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="E137" s="2"/>
       <c r="F137" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G137" t="s" s="2">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="H137" t="s" s="2">
         <v>85</v>
@@ -18970,20 +18939,18 @@
         <v>85</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>548</v>
+        <v>664</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>637</v>
+        <v>666</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>638</v>
-      </c>
-      <c r="O137" t="s" s="2">
-        <v>639</v>
-      </c>
+        <v>667</v>
+      </c>
+      <c r="O137" s="2"/>
       <c r="P137" t="s" s="2">
         <v>85</v>
       </c>
@@ -19031,7 +18998,7 @@
         <v>85</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>635</v>
+        <v>662</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>83</v>
@@ -19046,19 +19013,19 @@
         <v>104</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>665</v>
+        <v>85</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>641</v>
+        <v>668</v>
       </c>
       <c r="AM137" t="s" s="2">
-        <v>642</v>
+        <v>208</v>
       </c>
       <c r="AN137" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AO137" t="s" s="2">
-        <v>85</v>
+        <v>669</v>
       </c>
       <c r="AP137" t="s" s="2">
         <v>85</v>
@@ -19066,10 +19033,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>643</v>
+        <v>670</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -19089,19 +19056,23 @@
         <v>85</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>204</v>
+        <v>267</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>205</v>
+        <v>671</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N138" s="2"/>
-      <c r="O138" s="2"/>
+        <v>672</v>
+      </c>
+      <c r="N138" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="O138" t="s" s="2">
+        <v>674</v>
+      </c>
       <c r="P138" t="s" s="2">
         <v>85</v>
       </c>
@@ -19149,7 +19120,7 @@
         <v>85</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>207</v>
+        <v>670</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>83</v>
@@ -19161,16 +19132,16 @@
         <v>85</v>
       </c>
       <c r="AJ138" t="s" s="2">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="AK138" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>208</v>
+        <v>598</v>
       </c>
       <c r="AM138" t="s" s="2">
-        <v>85</v>
+        <v>675</v>
       </c>
       <c r="AN138" t="s" s="2">
         <v>85</v>
@@ -19184,14 +19155,14 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>667</v>
+        <v>676</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>644</v>
+        <v>676</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
-        <v>171</v>
+        <v>85</v>
       </c>
       <c r="E139" s="2"/>
       <c r="F139" t="s" s="2">
@@ -19204,24 +19175,26 @@
         <v>85</v>
       </c>
       <c r="I139" t="s" s="2">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>137</v>
+        <v>548</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>211</v>
+        <v>677</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>212</v>
+        <v>678</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="O139" s="2"/>
+        <v>679</v>
+      </c>
+      <c r="O139" t="s" s="2">
+        <v>680</v>
+      </c>
       <c r="P139" t="s" s="2">
         <v>85</v>
       </c>
@@ -19269,7 +19242,7 @@
         <v>85</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>214</v>
+        <v>676</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>83</v>
@@ -19281,16 +19254,16 @@
         <v>85</v>
       </c>
       <c r="AJ139" t="s" s="2">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="AK139" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AL139" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="AM139" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="AM139" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="AN139" t="s" s="2">
         <v>85</v>
@@ -19304,46 +19277,42 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>668</v>
+        <v>682</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>645</v>
+        <v>682</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
-        <v>559</v>
+        <v>85</v>
       </c>
       <c r="E140" s="2"/>
       <c r="F140" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G140" t="s" s="2">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="H140" t="s" s="2">
         <v>85</v>
       </c>
       <c r="I140" t="s" s="2">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>137</v>
+        <v>204</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>560</v>
+        <v>205</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="N140" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="O140" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="N140" s="2"/>
+      <c r="O140" s="2"/>
       <c r="P140" t="s" s="2">
         <v>85</v>
       </c>
@@ -19391,25 +19360,25 @@
         <v>85</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>562</v>
+        <v>207</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH140" t="s" s="2">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="AI140" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AJ140" t="s" s="2">
-        <v>143</v>
+        <v>85</v>
       </c>
       <c r="AK140" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>135</v>
+        <v>208</v>
       </c>
       <c r="AM140" t="s" s="2">
         <v>85</v>
@@ -19426,21 +19395,21 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>669</v>
+        <v>683</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>646</v>
+        <v>683</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
-        <v>85</v>
+        <v>171</v>
       </c>
       <c r="E141" s="2"/>
       <c r="F141" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="G141" t="s" s="2">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="H141" t="s" s="2">
         <v>85</v>
@@ -19452,20 +19421,18 @@
         <v>85</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>228</v>
+        <v>137</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>647</v>
+        <v>211</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>648</v>
+        <v>212</v>
       </c>
       <c r="N141" t="s" s="2">
-        <v>649</v>
-      </c>
-      <c r="O141" t="s" s="2">
-        <v>650</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="O141" s="2"/>
       <c r="P141" t="s" s="2">
         <v>85</v>
       </c>
@@ -19489,13 +19456,13 @@
         <v>85</v>
       </c>
       <c r="X141" t="s" s="2">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="Y141" t="s" s="2">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="Z141" t="s" s="2">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="AA141" t="s" s="2">
         <v>85</v>
@@ -19513,34 +19480,34 @@
         <v>85</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>646</v>
+        <v>214</v>
       </c>
       <c r="AG141" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AH141" t="s" s="2">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="AI141" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AJ141" t="s" s="2">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AK141" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>651</v>
+        <v>208</v>
       </c>
       <c r="AM141" t="s" s="2">
-        <v>652</v>
+        <v>85</v>
       </c>
       <c r="AN141" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AO141" t="s" s="2">
-        <v>653</v>
+        <v>85</v>
       </c>
       <c r="AP141" t="s" s="2">
         <v>85</v>
@@ -19548,52 +19515,52 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>670</v>
+        <v>684</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>654</v>
+        <v>684</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
-        <v>85</v>
+        <v>559</v>
       </c>
       <c r="E142" s="2"/>
       <c r="F142" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="G142" t="s" s="2">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="H142" t="s" s="2">
         <v>85</v>
       </c>
       <c r="I142" t="s" s="2">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>281</v>
+        <v>137</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>655</v>
+        <v>560</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>656</v>
+        <v>561</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>657</v>
+        <v>174</v>
       </c>
       <c r="O142" t="s" s="2">
-        <v>658</v>
+        <v>175</v>
       </c>
       <c r="P142" t="s" s="2">
         <v>85</v>
       </c>
       <c r="Q142" s="2"/>
       <c r="R142" t="s" s="2">
-        <v>671</v>
+        <v>85</v>
       </c>
       <c r="S142" t="s" s="2">
         <v>85</v>
@@ -19635,34 +19602,34 @@
         <v>85</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>654</v>
+        <v>562</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH142" t="s" s="2">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="AI142" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AJ142" t="s" s="2">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AK142" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>659</v>
+        <v>135</v>
       </c>
       <c r="AM142" t="s" s="2">
-        <v>660</v>
+        <v>85</v>
       </c>
       <c r="AN142" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AO142" t="s" s="2">
-        <v>661</v>
+        <v>85</v>
       </c>
       <c r="AP142" t="s" s="2">
         <v>85</v>
@@ -19670,21 +19637,21 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>672</v>
+        <v>685</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>672</v>
+        <v>685</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
-        <v>673</v>
+        <v>85</v>
       </c>
       <c r="E143" s="2"/>
       <c r="F143" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="G143" t="s" s="2">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="H143" t="s" s="2">
         <v>85</v>
@@ -19693,19 +19660,19 @@
         <v>85</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>674</v>
+        <v>686</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>675</v>
+        <v>687</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>676</v>
+        <v>688</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>677</v>
+        <v>689</v>
       </c>
       <c r="O143" s="2"/>
       <c r="P143" t="s" s="2">
@@ -19755,13 +19722,13 @@
         <v>85</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>672</v>
+        <v>685</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="AH143" t="s" s="2">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="AI143" t="s" s="2">
         <v>85</v>
@@ -19773,7 +19740,7 @@
         <v>85</v>
       </c>
       <c r="AL143" t="s" s="2">
-        <v>678</v>
+        <v>183</v>
       </c>
       <c r="AM143" t="s" s="2">
         <v>208</v>
@@ -19782,7 +19749,7 @@
         <v>85</v>
       </c>
       <c r="AO143" t="s" s="2">
-        <v>679</v>
+        <v>690</v>
       </c>
       <c r="AP143" t="s" s="2">
         <v>85</v>
@@ -19790,10 +19757,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>680</v>
+        <v>691</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>680</v>
+        <v>691</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -19801,7 +19768,7 @@
       </c>
       <c r="E144" s="2"/>
       <c r="F144" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="G144" t="s" s="2">
         <v>92</v>
@@ -19816,20 +19783,16 @@
         <v>93</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>267</v>
+        <v>112</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>681</v>
+        <v>692</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>682</v>
-      </c>
-      <c r="N144" t="s" s="2">
-        <v>683</v>
-      </c>
-      <c r="O144" t="s" s="2">
-        <v>684</v>
-      </c>
+        <v>693</v>
+      </c>
+      <c r="N144" s="2"/>
+      <c r="O144" s="2"/>
       <c r="P144" t="s" s="2">
         <v>85</v>
       </c>
@@ -19853,13 +19816,13 @@
         <v>85</v>
       </c>
       <c r="X144" t="s" s="2">
-        <v>85</v>
+        <v>221</v>
       </c>
       <c r="Y144" t="s" s="2">
-        <v>85</v>
+        <v>693</v>
       </c>
       <c r="Z144" t="s" s="2">
-        <v>85</v>
+        <v>694</v>
       </c>
       <c r="AA144" t="s" s="2">
         <v>85</v>
@@ -19877,10 +19840,10 @@
         <v>85</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>680</v>
+        <v>691</v>
       </c>
       <c r="AG144" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="AH144" t="s" s="2">
         <v>92</v>
@@ -19895,10 +19858,10 @@
         <v>85</v>
       </c>
       <c r="AL144" t="s" s="2">
-        <v>598</v>
+        <v>695</v>
       </c>
       <c r="AM144" t="s" s="2">
-        <v>685</v>
+        <v>208</v>
       </c>
       <c r="AN144" t="s" s="2">
         <v>85</v>
@@ -19907,726 +19870,6 @@
         <v>85</v>
       </c>
       <c r="AP144" t="s" s="2">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="s" s="2">
-        <v>686</v>
-      </c>
-      <c r="B145" t="s" s="2">
-        <v>686</v>
-      </c>
-      <c r="C145" s="2"/>
-      <c r="D145" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="E145" s="2"/>
-      <c r="F145" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G145" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H145" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="I145" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="J145" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K145" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="L145" t="s" s="2">
-        <v>687</v>
-      </c>
-      <c r="M145" t="s" s="2">
-        <v>688</v>
-      </c>
-      <c r="N145" t="s" s="2">
-        <v>689</v>
-      </c>
-      <c r="O145" t="s" s="2">
-        <v>690</v>
-      </c>
-      <c r="P145" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="Q145" s="2"/>
-      <c r="R145" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="S145" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="T145" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="U145" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="V145" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="W145" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="X145" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="Y145" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="Z145" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AA145" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AB145" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AC145" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AD145" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AE145" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AF145" t="s" s="2">
-        <v>686</v>
-      </c>
-      <c r="AG145" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH145" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI145" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AJ145" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK145" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AL145" t="s" s="2">
-        <v>691</v>
-      </c>
-      <c r="AM145" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AN145" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AO145" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AP145" t="s" s="2">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="s" s="2">
-        <v>692</v>
-      </c>
-      <c r="B146" t="s" s="2">
-        <v>692</v>
-      </c>
-      <c r="C146" s="2"/>
-      <c r="D146" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="E146" s="2"/>
-      <c r="F146" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G146" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H146" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="I146" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J146" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K146" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="L146" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="M146" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N146" s="2"/>
-      <c r="O146" s="2"/>
-      <c r="P146" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="Q146" s="2"/>
-      <c r="R146" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="S146" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="T146" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="U146" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="V146" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="W146" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="X146" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="Y146" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="Z146" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AA146" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AB146" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AC146" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AD146" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AE146" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AF146" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="AG146" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH146" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI146" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AJ146" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AK146" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AL146" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AM146" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AN146" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AO146" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AP146" t="s" s="2">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="s" s="2">
-        <v>693</v>
-      </c>
-      <c r="B147" t="s" s="2">
-        <v>693</v>
-      </c>
-      <c r="C147" s="2"/>
-      <c r="D147" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="E147" s="2"/>
-      <c r="F147" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G147" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H147" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="I147" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J147" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K147" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="L147" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="M147" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N147" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="O147" s="2"/>
-      <c r="P147" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="Q147" s="2"/>
-      <c r="R147" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="S147" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="T147" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="U147" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="V147" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="W147" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="X147" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="Y147" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="Z147" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AA147" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AB147" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AC147" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AD147" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AE147" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AF147" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="AG147" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH147" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI147" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AJ147" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AK147" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AL147" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AM147" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AN147" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AO147" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AP147" t="s" s="2">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="s" s="2">
-        <v>694</v>
-      </c>
-      <c r="B148" t="s" s="2">
-        <v>694</v>
-      </c>
-      <c r="C148" s="2"/>
-      <c r="D148" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="E148" s="2"/>
-      <c r="F148" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G148" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H148" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="I148" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="J148" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K148" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="L148" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="M148" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="N148" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="O148" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="P148" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="Q148" s="2"/>
-      <c r="R148" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="S148" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="T148" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="U148" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="V148" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="W148" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="X148" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="Y148" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="Z148" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AA148" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AB148" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AC148" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AD148" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AE148" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AF148" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="AG148" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH148" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI148" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AJ148" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AK148" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AL148" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AM148" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AN148" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AO148" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AP148" t="s" s="2">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="s" s="2">
-        <v>695</v>
-      </c>
-      <c r="B149" t="s" s="2">
-        <v>695</v>
-      </c>
-      <c r="C149" s="2"/>
-      <c r="D149" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="E149" s="2"/>
-      <c r="F149" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G149" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H149" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="I149" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J149" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K149" t="s" s="2">
-        <v>696</v>
-      </c>
-      <c r="L149" t="s" s="2">
-        <v>697</v>
-      </c>
-      <c r="M149" t="s" s="2">
-        <v>698</v>
-      </c>
-      <c r="N149" t="s" s="2">
-        <v>699</v>
-      </c>
-      <c r="O149" s="2"/>
-      <c r="P149" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="Q149" s="2"/>
-      <c r="R149" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="S149" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="T149" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="U149" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="V149" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="W149" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="X149" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="Y149" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="Z149" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AA149" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AB149" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AC149" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AD149" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AE149" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AF149" t="s" s="2">
-        <v>695</v>
-      </c>
-      <c r="AG149" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH149" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI149" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AJ149" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK149" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AL149" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="AM149" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AN149" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AO149" t="s" s="2">
-        <v>700</v>
-      </c>
-      <c r="AP149" t="s" s="2">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="s" s="2">
-        <v>701</v>
-      </c>
-      <c r="B150" t="s" s="2">
-        <v>701</v>
-      </c>
-      <c r="C150" s="2"/>
-      <c r="D150" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="E150" s="2"/>
-      <c r="F150" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="G150" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="H150" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="I150" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J150" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="K150" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="L150" t="s" s="2">
-        <v>702</v>
-      </c>
-      <c r="M150" t="s" s="2">
-        <v>703</v>
-      </c>
-      <c r="N150" s="2"/>
-      <c r="O150" s="2"/>
-      <c r="P150" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="Q150" s="2"/>
-      <c r="R150" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="S150" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="T150" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="U150" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="V150" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="W150" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="X150" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="Y150" t="s" s="2">
-        <v>703</v>
-      </c>
-      <c r="Z150" t="s" s="2">
-        <v>704</v>
-      </c>
-      <c r="AA150" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AB150" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AC150" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AD150" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AE150" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AF150" t="s" s="2">
-        <v>701</v>
-      </c>
-      <c r="AG150" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH150" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI150" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AJ150" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK150" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AL150" t="s" s="2">
-        <v>705</v>
-      </c>
-      <c r="AM150" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AN150" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AO150" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AP150" t="s" s="2">
         <v>85</v>
       </c>
     </row>
